--- a/docs/電腦打字高中職中文組決賽名冊.xlsx
+++ b/docs/電腦打字高中職中文組決賽名冊.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
   <si>
     <t>序</t>
   </si>
@@ -48,193 +48,199 @@
     <t>大甲區致用高中</t>
   </si>
   <si>
-    <t>王靖涵</t>
-  </si>
-  <si>
-    <t>吳進北</t>
-  </si>
-  <si>
-    <t>et89hp8</t>
-  </si>
-  <si>
-    <t>cd98y3</t>
-  </si>
-  <si>
-    <t>洪玉輝</t>
-  </si>
-  <si>
-    <t>e13p7</t>
-  </si>
-  <si>
-    <t>pe61bj4</t>
+    <t>方佳偉</t>
+  </si>
+  <si>
+    <t>黃靖芬</t>
+  </si>
+  <si>
+    <t>w61pe3</t>
+  </si>
+  <si>
+    <t>kf84y2</t>
   </si>
   <si>
     <t>李仲凱</t>
   </si>
   <si>
-    <t>林琦君</t>
-  </si>
-  <si>
-    <t>hp7tv9</t>
-  </si>
-  <si>
-    <t>xbj10r3</t>
-  </si>
-  <si>
-    <t>吳學侖</t>
-  </si>
-  <si>
-    <t>盧佳君</t>
-  </si>
-  <si>
-    <t>a90m2</t>
-  </si>
-  <si>
-    <t>my65e2</t>
-  </si>
-  <si>
-    <t>大里區大明高中</t>
-  </si>
-  <si>
-    <t>唐愷鴻</t>
-  </si>
-  <si>
-    <t>江坤祥</t>
-  </si>
-  <si>
-    <t>tv91hp8</t>
-  </si>
-  <si>
-    <t>jk1v2</t>
-  </si>
-  <si>
-    <t>北區曉明女中</t>
-  </si>
-  <si>
-    <t>林宥均</t>
-  </si>
-  <si>
-    <t>劉國聲</t>
-  </si>
-  <si>
-    <t>ncd74yg8</t>
-  </si>
-  <si>
-    <t>whp13dx3</t>
-  </si>
-  <si>
-    <t>高士妤</t>
-  </si>
-  <si>
-    <t>myg81w2</t>
-  </si>
-  <si>
-    <t>b42m5</t>
+    <t>林頌舜</t>
+  </si>
+  <si>
+    <t>rs8bj7</t>
+  </si>
+  <si>
+    <t>b40e6</t>
+  </si>
+  <si>
+    <t>溫程鈞</t>
+  </si>
+  <si>
+    <t>蔡宜玲</t>
+  </si>
+  <si>
+    <t>gw58e2</t>
+  </si>
+  <si>
+    <t>rs1bj9</t>
+  </si>
+  <si>
+    <t>張世賢</t>
+  </si>
+  <si>
+    <t>m50y1</t>
+  </si>
+  <si>
+    <t>sm16yg3</t>
+  </si>
+  <si>
+    <t>北屯區葳格高中</t>
+  </si>
+  <si>
+    <t>陳瑜潔</t>
+  </si>
+  <si>
+    <t>黃俊儒</t>
+  </si>
+  <si>
+    <t>w33tv4</t>
+  </si>
+  <si>
+    <t>bj59xb5</t>
+  </si>
+  <si>
+    <t>北屯區衛道高中</t>
+  </si>
+  <si>
+    <t>蔡佩融</t>
+  </si>
+  <si>
+    <t>郭學政</t>
+  </si>
+  <si>
+    <t>jkf43my5</t>
+  </si>
+  <si>
+    <t>gwh63m9</t>
+  </si>
+  <si>
+    <t>李承峻</t>
+  </si>
+  <si>
+    <t>v4p4</t>
+  </si>
+  <si>
+    <t>bjk79sm5</t>
+  </si>
+  <si>
+    <t>錢宇倫</t>
+  </si>
+  <si>
+    <t>bj47y5</t>
+  </si>
+  <si>
+    <t>j64h4</t>
   </si>
   <si>
     <t>后里區后綜高中</t>
   </si>
   <si>
-    <t>林敬碩</t>
+    <t>宋依珍</t>
   </si>
   <si>
     <t>唐慧玲</t>
   </si>
   <si>
-    <t>jkf16an5</t>
-  </si>
-  <si>
-    <t>v10b4</t>
-  </si>
-  <si>
-    <t>游韋容</t>
-  </si>
-  <si>
-    <t>et34yg2</t>
-  </si>
-  <si>
-    <t>f69pe7</t>
-  </si>
-  <si>
-    <t>西區忠明高中</t>
-  </si>
-  <si>
-    <t>廖哲瀚</t>
-  </si>
-  <si>
-    <t>劉容菁</t>
-  </si>
-  <si>
-    <t>t69s7</t>
-  </si>
-  <si>
-    <t>jkf4k3</t>
-  </si>
-  <si>
-    <t>陳玒諭</t>
-  </si>
-  <si>
-    <t>p84hp5</t>
-  </si>
-  <si>
-    <t>dxb29wh6</t>
-  </si>
-  <si>
-    <t>陳可軒</t>
-  </si>
-  <si>
-    <t>sm41s7</t>
-  </si>
-  <si>
-    <t>fr32pe7</t>
-  </si>
-  <si>
-    <t>張語恩</t>
-  </si>
-  <si>
-    <t>my97pe7</t>
-  </si>
-  <si>
-    <t>frs32rs4</t>
+    <t>xb65bj7</t>
+  </si>
+  <si>
+    <t>t92y6</t>
+  </si>
+  <si>
+    <t>西區臺中女中</t>
+  </si>
+  <si>
+    <t>林映如</t>
+  </si>
+  <si>
+    <t>盧冠豪</t>
+  </si>
+  <si>
+    <t>bjk79e5</t>
+  </si>
+  <si>
+    <t>gw88w8</t>
   </si>
   <si>
     <t>東區臺中家商</t>
   </si>
   <si>
-    <t>馬威鎮</t>
-  </si>
-  <si>
-    <t>吳慧貞老師</t>
-  </si>
-  <si>
-    <t>sm37bj7</t>
-  </si>
-  <si>
-    <t>jk67t1</t>
+    <t>張桂洋</t>
+  </si>
+  <si>
+    <t>何篤生</t>
+  </si>
+  <si>
+    <t>jk42an2</t>
+  </si>
+  <si>
+    <t>b93b5</t>
+  </si>
+  <si>
+    <t>郭忠霖</t>
+  </si>
+  <si>
+    <t>顏啟芳</t>
+  </si>
+  <si>
+    <t>c56k4</t>
+  </si>
+  <si>
+    <t>frs47s6</t>
+  </si>
+  <si>
+    <t>鄭曄聰</t>
+  </si>
+  <si>
+    <t>林書淇</t>
+  </si>
+  <si>
+    <t>p31gw1</t>
+  </si>
+  <si>
+    <t>bj94sm9</t>
   </si>
   <si>
     <t>南屯區惠文高中</t>
   </si>
   <si>
-    <t>陳信和</t>
+    <t>汪得福</t>
   </si>
   <si>
     <t>黃智仁</t>
   </si>
   <si>
-    <t>gw13d8</t>
-  </si>
-  <si>
-    <t>cd5wh6</t>
-  </si>
-  <si>
-    <t>李哲瑋</t>
-  </si>
-  <si>
-    <t>hp19s5</t>
-  </si>
-  <si>
-    <t>ygw75jk4</t>
+    <t>n46f3</t>
+  </si>
+  <si>
+    <t>hp36h5</t>
+  </si>
+  <si>
+    <t>劉晉</t>
+  </si>
+  <si>
+    <t>smy58tv4</t>
+  </si>
+  <si>
+    <t>rs69w4</t>
+  </si>
+  <si>
+    <t>謝采蓁</t>
+  </si>
+  <si>
+    <t>cdx19sm7</t>
+  </si>
+  <si>
+    <t>f92e7</t>
   </si>
   <si>
     <t>烏日區明道中學</t>
@@ -246,94 +252,97 @@
     <t>黃淑珍</t>
   </si>
   <si>
-    <t>c93d5</t>
-  </si>
-  <si>
-    <t>gw37kf6</t>
-  </si>
-  <si>
-    <t>陳靖玟</t>
-  </si>
-  <si>
-    <t>tv44t1</t>
-  </si>
-  <si>
-    <t>f58jk5</t>
-  </si>
-  <si>
-    <t>楊政憬</t>
-  </si>
-  <si>
-    <t>bjk85dx5</t>
-  </si>
-  <si>
-    <t>smy33w8</t>
-  </si>
-  <si>
-    <t>楊姵歆</t>
-  </si>
-  <si>
-    <t>b26gw7</t>
-  </si>
-  <si>
-    <t>r10yg9</t>
-  </si>
-  <si>
-    <t>新社區新社高中</t>
-  </si>
-  <si>
-    <t>徐造唯</t>
-  </si>
-  <si>
-    <t>顏永山</t>
-  </si>
-  <si>
-    <t>pet56m1</t>
-  </si>
-  <si>
-    <t>yg59jk5</t>
-  </si>
-  <si>
-    <t>劉宥葳</t>
-  </si>
-  <si>
-    <t>gw77hp4</t>
-  </si>
-  <si>
-    <t>pet58t7</t>
+    <t>gw25b2</t>
+  </si>
+  <si>
+    <t>frs6wh6</t>
+  </si>
+  <si>
+    <t>尤子昀</t>
+  </si>
+  <si>
+    <t>whp94s5</t>
+  </si>
+  <si>
+    <t>ygw46sm9</t>
+  </si>
+  <si>
+    <t>張庭禎</t>
+  </si>
+  <si>
+    <t>hpe61j1</t>
+  </si>
+  <si>
+    <t>xbj54s8</t>
+  </si>
+  <si>
+    <t>柯嘉雯</t>
+  </si>
+  <si>
+    <t>jk97b8</t>
+  </si>
+  <si>
+    <t>dxb59b7</t>
+  </si>
+  <si>
+    <t>潭子區弘文高中</t>
+  </si>
+  <si>
+    <t>蔡宇軒</t>
+  </si>
+  <si>
+    <t>張政豐</t>
+  </si>
+  <si>
+    <t>v70fr3</t>
+  </si>
+  <si>
+    <t>pe83r7</t>
+  </si>
+  <si>
+    <t>余筱筑</t>
+  </si>
+  <si>
+    <t>yg4e3</t>
+  </si>
+  <si>
+    <t>bj87e9</t>
   </si>
   <si>
     <t>霧峰區明台高中</t>
   </si>
   <si>
-    <t>全政瑋</t>
+    <t>張智傑</t>
   </si>
   <si>
     <t>邱仕嘉</t>
   </si>
   <si>
-    <t>c51sm9</t>
-  </si>
-  <si>
-    <t>v98dx7</t>
+    <t>r84c7</t>
+  </si>
+  <si>
+    <t>tv25j6</t>
   </si>
   <si>
     <t>蔡宇杰</t>
   </si>
   <si>
-    <t>yg66et7</t>
-  </si>
-  <si>
-    <t>jk27nc2</t>
-  </si>
-  <si>
-    <t>李育欣</t>
-  </si>
-  <si>
-    <t>rs43j5</t>
-  </si>
-  <si>
-    <t>c97j8</t>
+    <t>bj85h6</t>
+  </si>
+  <si>
+    <t>gw27dx7</t>
+  </si>
+  <si>
+    <t>黃金鳳</t>
+  </si>
+  <si>
+    <t>徐素芬</t>
+  </si>
+  <si>
+    <t>dx13g8</t>
+  </si>
+  <si>
+    <t>cd20c1</t>
   </si>
 </sst>
 </file>
@@ -1337,9 +1346,9 @@
     <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1402,13 +1411,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1422,16 +1431,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1445,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>22</v>
@@ -1534,19 +1543,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1557,13 +1566,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>43</v>
@@ -1603,19 +1612,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1626,19 +1635,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1649,19 +1658,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1672,19 +1681,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1695,19 +1704,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1718,19 +1727,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1741,19 +1750,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1764,19 +1773,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1787,19 +1796,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1810,19 +1819,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1833,19 +1842,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1856,19 +1865,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1879,19 +1888,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1902,19 +1911,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1925,19 +1934,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
